--- a/data/tds data.xlsx
+++ b/data/tds data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University of Colorado\Subjects\Projects\twills_tds_consolidator\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC8879F-EBA2-445E-AC6D-09BF3E7BB29B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="18774" windowHeight="10651"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="174">
   <si>
     <t>TWILLS CLOTHING PVT LTD</t>
   </si>
@@ -552,8 +546,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,14 +611,14 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +680,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,7 +715,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -898,79 +892,79 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G417"/>
+  <dimension ref="A1:G418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="B346" sqref="B346"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="F341" sqref="F341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="49.6" customHeight="1">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="24.8" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="32.950000000000003" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -993,7 +987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="29.25" customHeight="1">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -1016,7 +1010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>2</v>
       </c>
@@ -1039,7 +1033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.5" customHeight="1">
       <c r="A8" s="2">
         <v>3</v>
       </c>
@@ -1062,7 +1056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -1085,7 +1079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>5</v>
       </c>
@@ -1108,7 +1102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="16.5" customHeight="1">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -1131,7 +1125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -1154,7 +1148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="29.25" customHeight="1">
       <c r="A13" s="2">
         <v>8</v>
       </c>
@@ -1177,7 +1171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="29.25" customHeight="1">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -1200,7 +1194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="29.25" customHeight="1">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -1223,7 +1217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="16.5" customHeight="1">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -1246,7 +1240,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -1269,7 +1263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="29.25" customHeight="1">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -1292,7 +1286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="29.25" customHeight="1">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -1315,7 +1309,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="29.25" customHeight="1">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="29.25" customHeight="1">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -1361,7 +1355,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="29.25" customHeight="1">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -1384,7 +1378,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="29.25" customHeight="1">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -1407,7 +1401,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="29.25" customHeight="1">
       <c r="A24" s="2">
         <v>19</v>
       </c>
@@ -1430,7 +1424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="28.55" customHeight="1">
       <c r="A25" s="2">
         <v>20</v>
       </c>
@@ -1453,7 +1447,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A26" s="2">
         <v>21</v>
       </c>
@@ -1476,7 +1470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A27" s="2">
         <v>22</v>
       </c>
@@ -1499,7 +1493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1">
       <c r="A28" s="2">
         <v>23</v>
       </c>
@@ -1522,7 +1516,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A29" s="2">
         <v>24</v>
       </c>
@@ -1545,7 +1539,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A30" s="2">
         <v>25</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="16.5" customHeight="1">
       <c r="A31" s="2">
         <v>26</v>
       </c>
@@ -1591,7 +1585,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A32" s="2">
         <v>27</v>
       </c>
@@ -1614,7 +1608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="29.25" customHeight="1">
       <c r="A33" s="2">
         <v>28</v>
       </c>
@@ -1637,7 +1631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="29.25" customHeight="1">
       <c r="A34" s="2">
         <v>29</v>
       </c>
@@ -1660,7 +1654,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="29.25" customHeight="1">
       <c r="A35" s="2">
         <v>30</v>
       </c>
@@ -1683,7 +1677,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="29.25" customHeight="1">
       <c r="A36" s="2">
         <v>31</v>
       </c>
@@ -1706,7 +1700,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="29.25" customHeight="1">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -1729,7 +1723,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="29.25" customHeight="1">
       <c r="A38" s="2">
         <v>33</v>
       </c>
@@ -1752,7 +1746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="29.25" customHeight="1">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -1775,7 +1769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="29.25" customHeight="1">
       <c r="A40" s="2">
         <v>35</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="28.55" customHeight="1">
       <c r="A41" s="2">
         <v>36</v>
       </c>
@@ -1821,7 +1815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="29.25" customHeight="1">
       <c r="A42" s="2">
         <v>37</v>
       </c>
@@ -1844,7 +1838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="29.25" customHeight="1">
       <c r="A43" s="2">
         <v>38</v>
       </c>
@@ -1867,7 +1861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="29.25" customHeight="1">
       <c r="A44" s="2">
         <v>39</v>
       </c>
@@ -1890,7 +1884,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="29.25" customHeight="1">
       <c r="A45" s="2">
         <v>40</v>
       </c>
@@ -1913,7 +1907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="29.25" customHeight="1">
       <c r="A46" s="2">
         <v>41</v>
       </c>
@@ -1936,7 +1930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="29.25" customHeight="1">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -1959,7 +1953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="29.25" customHeight="1">
       <c r="A48" s="2">
         <v>43</v>
       </c>
@@ -1982,7 +1976,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="29.25" customHeight="1">
       <c r="A49" s="2">
         <v>44</v>
       </c>
@@ -2005,7 +1999,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="29.25" customHeight="1">
       <c r="A50" s="2">
         <v>45</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="29.25" customHeight="1">
       <c r="A51" s="2">
         <v>46</v>
       </c>
@@ -2051,7 +2045,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="29.25" customHeight="1">
       <c r="A52" s="2">
         <v>47</v>
       </c>
@@ -2074,7 +2068,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="29.25" customHeight="1">
       <c r="A53" s="2">
         <v>48</v>
       </c>
@@ -2097,7 +2091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="29.25" customHeight="1">
       <c r="A54" s="2">
         <v>49</v>
       </c>
@@ -2120,7 +2114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="29.25" customHeight="1">
       <c r="A55" s="2">
         <v>50</v>
       </c>
@@ -2143,7 +2137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="29.25" customHeight="1">
       <c r="A56" s="2">
         <v>51</v>
       </c>
@@ -2166,7 +2160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="29.25" customHeight="1">
       <c r="A57" s="2">
         <v>52</v>
       </c>
@@ -2189,7 +2183,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="28.55" customHeight="1">
       <c r="A58" s="2">
         <v>53</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="29.25" customHeight="1">
       <c r="A59" s="2">
         <v>54</v>
       </c>
@@ -2235,7 +2229,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="29.25" customHeight="1">
       <c r="A60" s="2">
         <v>55</v>
       </c>
@@ -2258,7 +2252,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="29.25" customHeight="1">
       <c r="A61" s="2">
         <v>56</v>
       </c>
@@ -2281,7 +2275,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="29.25" customHeight="1">
       <c r="A62" s="2">
         <v>57</v>
       </c>
@@ -2304,7 +2298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="29.25" customHeight="1">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -2327,7 +2321,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="29.25" customHeight="1">
       <c r="A64" s="2">
         <v>59</v>
       </c>
@@ -2350,7 +2344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="29.25" customHeight="1">
       <c r="A65" s="2">
         <v>60</v>
       </c>
@@ -2373,7 +2367,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="29.25" customHeight="1">
       <c r="A66" s="2">
         <v>61</v>
       </c>
@@ -2396,7 +2390,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="29.25" customHeight="1">
       <c r="A67" s="2">
         <v>62</v>
       </c>
@@ -2419,7 +2413,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="29.25" customHeight="1">
       <c r="A68" s="2">
         <v>63</v>
       </c>
@@ -2442,7 +2436,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="29.25" customHeight="1">
       <c r="A69" s="2">
         <v>64</v>
       </c>
@@ -2465,7 +2459,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="29.25" customHeight="1">
       <c r="A70" s="2">
         <v>65</v>
       </c>
@@ -2488,7 +2482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="29.25" customHeight="1">
       <c r="A71" s="2">
         <v>66</v>
       </c>
@@ -2511,7 +2505,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="29.25" customHeight="1">
       <c r="A72" s="2">
         <v>67</v>
       </c>
@@ -2534,7 +2528,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="29.25" customHeight="1">
       <c r="A73" s="2">
         <v>68</v>
       </c>
@@ -2557,7 +2551,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="29.25" customHeight="1">
       <c r="A74" s="2">
         <v>69</v>
       </c>
@@ -2580,7 +2574,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="29.25" customHeight="1">
       <c r="A75" s="2">
         <v>70</v>
       </c>
@@ -2603,7 +2597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="28.55" customHeight="1">
       <c r="A76" s="2">
         <v>71</v>
       </c>
@@ -2626,7 +2620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="29.25" customHeight="1">
       <c r="A77" s="2">
         <v>72</v>
       </c>
@@ -2649,7 +2643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="29.25" customHeight="1">
       <c r="A78" s="2">
         <v>73</v>
       </c>
@@ -2672,7 +2666,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="29.25" customHeight="1">
       <c r="A79" s="2">
         <v>74</v>
       </c>
@@ -2695,7 +2689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="29.25" customHeight="1">
       <c r="A80" s="2">
         <v>75</v>
       </c>
@@ -2718,7 +2712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="29.25" customHeight="1">
       <c r="A81" s="2">
         <v>76</v>
       </c>
@@ -2741,7 +2735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="29.25" customHeight="1">
       <c r="A82" s="2">
         <v>77</v>
       </c>
@@ -2764,7 +2758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="29.25" customHeight="1">
       <c r="A83" s="2">
         <v>78</v>
       </c>
@@ -2787,7 +2781,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="29.25" customHeight="1">
       <c r="A84" s="2">
         <v>79</v>
       </c>
@@ -2810,7 +2804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="29.25" customHeight="1">
       <c r="A85" s="2">
         <v>80</v>
       </c>
@@ -2833,7 +2827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="29.25" customHeight="1">
       <c r="A86" s="2">
         <v>81</v>
       </c>
@@ -2856,7 +2850,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="29.25" customHeight="1">
       <c r="A87" s="2">
         <v>82</v>
       </c>
@@ -2879,7 +2873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="29.25" customHeight="1">
       <c r="A88" s="2">
         <v>83</v>
       </c>
@@ -2902,7 +2896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="29.25" customHeight="1">
       <c r="A89" s="2">
         <v>84</v>
       </c>
@@ -2925,7 +2919,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="29.25" customHeight="1">
       <c r="A90" s="2">
         <v>85</v>
       </c>
@@ -2948,7 +2942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="29.25" customHeight="1">
       <c r="A91" s="2">
         <v>86</v>
       </c>
@@ -2971,7 +2965,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="29.25" customHeight="1">
       <c r="A92" s="2">
         <v>87</v>
       </c>
@@ -2994,7 +2988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="29.25" customHeight="1">
       <c r="A93" s="2">
         <v>88</v>
       </c>
@@ -3017,7 +3011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="28.55" customHeight="1">
       <c r="A94" s="2">
         <v>89</v>
       </c>
@@ -3040,7 +3034,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="29.25" customHeight="1">
       <c r="A95" s="2">
         <v>90</v>
       </c>
@@ -3063,7 +3057,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="29.25" customHeight="1">
       <c r="A96" s="2">
         <v>91</v>
       </c>
@@ -3086,7 +3080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="29.25" customHeight="1">
       <c r="A97" s="2">
         <v>92</v>
       </c>
@@ -3109,7 +3103,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="29.25" customHeight="1">
       <c r="A98" s="2">
         <v>93</v>
       </c>
@@ -3132,7 +3126,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="29.25" customHeight="1">
       <c r="A99" s="2">
         <v>94</v>
       </c>
@@ -3155,7 +3149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="29.25" customHeight="1">
       <c r="A100" s="2">
         <v>95</v>
       </c>
@@ -3178,7 +3172,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="29.25" customHeight="1">
       <c r="A101" s="2">
         <v>96</v>
       </c>
@@ -3201,7 +3195,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="29.25" customHeight="1">
       <c r="A102" s="2">
         <v>97</v>
       </c>
@@ -3224,7 +3218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="29.25" customHeight="1">
       <c r="A103" s="2">
         <v>98</v>
       </c>
@@ -3247,7 +3241,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="29.25" customHeight="1">
       <c r="A104" s="2">
         <v>99</v>
       </c>
@@ -3270,7 +3264,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="29.25" customHeight="1">
       <c r="A105" s="2">
         <v>100</v>
       </c>
@@ -3293,7 +3287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="29.25" customHeight="1">
       <c r="A106" s="2">
         <v>101</v>
       </c>
@@ -3316,7 +3310,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="29.25" customHeight="1">
       <c r="A107" s="2">
         <v>102</v>
       </c>
@@ -3339,7 +3333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="29.25" customHeight="1">
       <c r="A108" s="2">
         <v>103</v>
       </c>
@@ -3362,7 +3356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="16.5" customHeight="1">
       <c r="A109" s="2">
         <v>104</v>
       </c>
@@ -3385,7 +3379,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A110" s="2">
         <v>105</v>
       </c>
@@ -3408,7 +3402,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="29.25" customHeight="1">
       <c r="A111" s="2">
         <v>106</v>
       </c>
@@ -3431,7 +3425,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="29.25" customHeight="1">
       <c r="A112" s="2">
         <v>107</v>
       </c>
@@ -3454,7 +3448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="29.25" customHeight="1">
       <c r="A113" s="2">
         <v>108</v>
       </c>
@@ -3477,7 +3471,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="29.25" customHeight="1">
       <c r="A114" s="2">
         <v>109</v>
       </c>
@@ -3500,7 +3494,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="29.25" customHeight="1">
       <c r="A115" s="2">
         <v>110</v>
       </c>
@@ -3523,7 +3517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="29.25" customHeight="1">
       <c r="A116" s="2">
         <v>111</v>
       </c>
@@ -3546,7 +3540,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" ht="29.25" customHeight="1">
       <c r="A117" s="2">
         <v>112</v>
       </c>
@@ -3569,7 +3563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" ht="28.55" customHeight="1">
       <c r="A118" s="2">
         <v>113</v>
       </c>
@@ -3592,7 +3586,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="29.25" customHeight="1">
       <c r="A119" s="2">
         <v>114</v>
       </c>
@@ -3615,7 +3609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="29.25" customHeight="1">
       <c r="A120" s="2">
         <v>115</v>
       </c>
@@ -3638,7 +3632,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="29.25" customHeight="1">
       <c r="A121" s="2">
         <v>116</v>
       </c>
@@ -3661,7 +3655,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A122" s="2">
         <v>117</v>
       </c>
@@ -3684,7 +3678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A123" s="2">
         <v>118</v>
       </c>
@@ -3707,7 +3701,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="16.5" customHeight="1">
       <c r="A124" s="2">
         <v>119</v>
       </c>
@@ -3730,7 +3724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A125" s="2">
         <v>120</v>
       </c>
@@ -3753,7 +3747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="29.25" customHeight="1">
       <c r="A126" s="2">
         <v>121</v>
       </c>
@@ -3776,7 +3770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" ht="29.25" customHeight="1">
       <c r="A127" s="2">
         <v>122</v>
       </c>
@@ -3799,7 +3793,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" ht="29.25" customHeight="1">
       <c r="A128" s="2">
         <v>123</v>
       </c>
@@ -3822,7 +3816,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" ht="29.25" customHeight="1">
       <c r="A129" s="2">
         <v>124</v>
       </c>
@@ -3845,7 +3839,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="29.25" customHeight="1">
       <c r="A130" s="2">
         <v>125</v>
       </c>
@@ -3868,7 +3862,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" ht="29.25" customHeight="1">
       <c r="A131" s="2">
         <v>126</v>
       </c>
@@ -3891,7 +3885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" ht="28.55" customHeight="1">
       <c r="A132" s="2">
         <v>127</v>
       </c>
@@ -3914,7 +3908,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" ht="29.25" customHeight="1">
       <c r="A133" s="2">
         <v>128</v>
       </c>
@@ -3937,7 +3931,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" ht="29.25" customHeight="1">
       <c r="A134" s="2">
         <v>129</v>
       </c>
@@ -3960,7 +3954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" ht="29.25" customHeight="1">
       <c r="A135" s="2">
         <v>130</v>
       </c>
@@ -3983,7 +3977,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" ht="29.25" customHeight="1">
       <c r="A136" s="2">
         <v>131</v>
       </c>
@@ -4006,7 +4000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" ht="29.25" customHeight="1">
       <c r="A137" s="2">
         <v>132</v>
       </c>
@@ -4029,7 +4023,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" ht="29.25" customHeight="1">
       <c r="A138" s="2">
         <v>133</v>
       </c>
@@ -4052,7 +4046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" ht="29.25" customHeight="1">
       <c r="A139" s="2">
         <v>134</v>
       </c>
@@ -4075,7 +4069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="29.25" customHeight="1">
       <c r="A140" s="2">
         <v>135</v>
       </c>
@@ -4098,7 +4092,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" ht="29.25" customHeight="1">
       <c r="A141" s="2">
         <v>136</v>
       </c>
@@ -4121,7 +4115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="29.25" customHeight="1">
       <c r="A142" s="2">
         <v>137</v>
       </c>
@@ -4144,7 +4138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" ht="29.25" customHeight="1">
       <c r="A143" s="2">
         <v>138</v>
       </c>
@@ -4167,7 +4161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" ht="29.25" customHeight="1">
       <c r="A144" s="2">
         <v>139</v>
       </c>
@@ -4190,7 +4184,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" ht="29.25" customHeight="1">
       <c r="A145" s="2">
         <v>140</v>
       </c>
@@ -4213,7 +4207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="29.25" customHeight="1">
       <c r="A146" s="2">
         <v>141</v>
       </c>
@@ -4236,7 +4230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" ht="29.25" customHeight="1">
       <c r="A147" s="2">
         <v>142</v>
       </c>
@@ -4259,7 +4253,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" ht="29.25" customHeight="1">
       <c r="A148" s="2">
         <v>143</v>
       </c>
@@ -4282,7 +4276,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" ht="29.25" customHeight="1">
       <c r="A149" s="2">
         <v>144</v>
       </c>
@@ -4305,7 +4299,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="28.55" customHeight="1">
       <c r="A150" s="2">
         <v>145</v>
       </c>
@@ -4328,7 +4322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" ht="29.25" customHeight="1">
       <c r="A151" s="2">
         <v>146</v>
       </c>
@@ -4351,7 +4345,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="29.25" customHeight="1">
       <c r="A152" s="2">
         <v>147</v>
       </c>
@@ -4374,7 +4368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" ht="29.25" customHeight="1">
       <c r="A153" s="2">
         <v>148</v>
       </c>
@@ -4397,7 +4391,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="29.25" customHeight="1">
       <c r="A154" s="2">
         <v>149</v>
       </c>
@@ -4420,7 +4414,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" ht="29.25" customHeight="1">
       <c r="A155" s="2">
         <v>150</v>
       </c>
@@ -4443,7 +4437,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="29.25" customHeight="1">
       <c r="A156" s="2">
         <v>151</v>
       </c>
@@ -4466,7 +4460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" ht="29.25" customHeight="1">
       <c r="A157" s="2">
         <v>152</v>
       </c>
@@ -4489,7 +4483,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="29.25" customHeight="1">
       <c r="A158" s="2">
         <v>153</v>
       </c>
@@ -4512,7 +4506,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" ht="29.25" customHeight="1">
       <c r="A159" s="2">
         <v>154</v>
       </c>
@@ -4535,7 +4529,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="29.25" customHeight="1">
       <c r="A160" s="2">
         <v>155</v>
       </c>
@@ -4558,7 +4552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="29.25" customHeight="1">
       <c r="A161" s="2">
         <v>156</v>
       </c>
@@ -4581,7 +4575,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" ht="29.25" customHeight="1">
       <c r="A162" s="2">
         <v>157</v>
       </c>
@@ -4604,7 +4598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" ht="29.25" customHeight="1">
       <c r="A163" s="2">
         <v>158</v>
       </c>
@@ -4627,7 +4621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" ht="29.25" customHeight="1">
       <c r="A164" s="2">
         <v>159</v>
       </c>
@@ -4650,7 +4644,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" ht="29.25" customHeight="1">
       <c r="A165" s="2">
         <v>160</v>
       </c>
@@ -4673,7 +4667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="29.25" customHeight="1">
       <c r="A166" s="2">
         <v>161</v>
       </c>
@@ -4696,7 +4690,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" ht="29.25" customHeight="1">
       <c r="A167" s="2">
         <v>162</v>
       </c>
@@ -4719,7 +4713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" ht="28.55" customHeight="1">
       <c r="A168" s="2">
         <v>163</v>
       </c>
@@ -4742,7 +4736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" ht="29.25" customHeight="1">
       <c r="A169" s="2">
         <v>164</v>
       </c>
@@ -4765,7 +4759,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" ht="29.25" customHeight="1">
       <c r="A170" s="2">
         <v>165</v>
       </c>
@@ -4788,7 +4782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A171" s="2">
         <v>166</v>
       </c>
@@ -4811,7 +4805,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A172" s="2">
         <v>167</v>
       </c>
@@ -4834,7 +4828,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" ht="41.3" customHeight="1">
       <c r="A173" s="2">
         <v>168</v>
       </c>
@@ -4857,7 +4851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A174" s="2">
         <v>169</v>
       </c>
@@ -4880,7 +4874,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="16.5" customHeight="1">
       <c r="A175" s="2">
         <v>170</v>
       </c>
@@ -4903,7 +4897,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A176" s="2">
         <v>171</v>
       </c>
@@ -4926,7 +4920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="16.5" customHeight="1">
       <c r="A177" s="2">
         <v>172</v>
       </c>
@@ -4949,7 +4943,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A178" s="2">
         <v>173</v>
       </c>
@@ -4972,7 +4966,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A179" s="2">
         <v>174</v>
       </c>
@@ -4995,7 +4989,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" ht="16.5" customHeight="1">
       <c r="A180" s="2">
         <v>175</v>
       </c>
@@ -5018,7 +5012,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A181" s="2">
         <v>176</v>
       </c>
@@ -5041,7 +5035,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A182" s="2">
         <v>177</v>
       </c>
@@ -5064,7 +5058,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="29.25" customHeight="1">
       <c r="A183" s="2">
         <v>178</v>
       </c>
@@ -5087,7 +5081,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" ht="29.25" customHeight="1">
       <c r="A184" s="2">
         <v>179</v>
       </c>
@@ -5110,7 +5104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="16.5" customHeight="1">
       <c r="A185" s="2">
         <v>180</v>
       </c>
@@ -5133,7 +5127,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" ht="29.25" customHeight="1">
       <c r="A186" s="2">
         <v>181</v>
       </c>
@@ -5156,7 +5150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="29.25" customHeight="1">
       <c r="A187" s="2">
         <v>182</v>
       </c>
@@ -5179,7 +5173,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" ht="29.25" customHeight="1">
       <c r="A188" s="2">
         <v>183</v>
       </c>
@@ -5202,7 +5196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="29.25" customHeight="1">
       <c r="A189" s="2">
         <v>184</v>
       </c>
@@ -5225,7 +5219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A190" s="2">
         <v>185</v>
       </c>
@@ -5248,7 +5242,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="16.5" customHeight="1">
       <c r="A191" s="2">
         <v>186</v>
       </c>
@@ -5271,7 +5265,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="192" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A192" s="2">
         <v>187</v>
       </c>
@@ -5294,7 +5288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="193" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A193" s="2">
         <v>188</v>
       </c>
@@ -5317,7 +5311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="194" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" ht="16.5" customHeight="1">
       <c r="A194" s="2">
         <v>189</v>
       </c>
@@ -5340,7 +5334,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="29.25" customHeight="1">
       <c r="A195" s="2">
         <v>190</v>
       </c>
@@ -5363,7 +5357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="29.25" customHeight="1">
       <c r="A196" s="2">
         <v>191</v>
       </c>
@@ -5386,7 +5380,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="29.25" customHeight="1">
       <c r="A197" s="2">
         <v>192</v>
       </c>
@@ -5409,7 +5403,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" ht="29.25" customHeight="1">
       <c r="A198" s="2">
         <v>193</v>
       </c>
@@ -5432,7 +5426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="29.25" customHeight="1">
       <c r="A199" s="2">
         <v>194</v>
       </c>
@@ -5455,7 +5449,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" ht="29.25" customHeight="1">
       <c r="A200" s="2">
         <v>195</v>
       </c>
@@ -5478,7 +5472,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" ht="29.25" customHeight="1">
       <c r="A201" s="2">
         <v>196</v>
       </c>
@@ -5501,7 +5495,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" ht="29.25" customHeight="1">
       <c r="A202" s="2">
         <v>197</v>
       </c>
@@ -5524,7 +5518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" ht="29.25" customHeight="1">
       <c r="A203" s="2">
         <v>198</v>
       </c>
@@ -5547,7 +5541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="29.25" customHeight="1">
       <c r="A204" s="2">
         <v>199</v>
       </c>
@@ -5570,7 +5564,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" ht="29.25" customHeight="1">
       <c r="A205" s="2">
         <v>200</v>
       </c>
@@ -5593,7 +5587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="28.55" customHeight="1">
       <c r="A206" s="2">
         <v>201</v>
       </c>
@@ -5616,7 +5610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="29.25" customHeight="1">
       <c r="A207" s="2">
         <v>202</v>
       </c>
@@ -5639,7 +5633,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="29.25" customHeight="1">
       <c r="A208" s="2">
         <v>203</v>
       </c>
@@ -5662,7 +5656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="29.25" customHeight="1">
       <c r="A209" s="2">
         <v>204</v>
       </c>
@@ -5685,7 +5679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="29.25" customHeight="1">
       <c r="A210" s="2">
         <v>205</v>
       </c>
@@ -5708,7 +5702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="29.25" customHeight="1">
       <c r="A211" s="2">
         <v>206</v>
       </c>
@@ -5731,7 +5725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="212" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="29.25" customHeight="1">
       <c r="A212" s="2">
         <v>207</v>
       </c>
@@ -5754,7 +5748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="29.25" customHeight="1">
       <c r="A213" s="2">
         <v>208</v>
       </c>
@@ -5777,7 +5771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="29.25" customHeight="1">
       <c r="A214" s="2">
         <v>209</v>
       </c>
@@ -5800,7 +5794,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="29.25" customHeight="1">
       <c r="A215" s="2">
         <v>210</v>
       </c>
@@ -5823,7 +5817,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="29.25" customHeight="1">
       <c r="A216" s="2">
         <v>211</v>
       </c>
@@ -5846,7 +5840,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="29.25" customHeight="1">
       <c r="A217" s="2">
         <v>212</v>
       </c>
@@ -5869,7 +5863,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="29.25" customHeight="1">
       <c r="A218" s="2">
         <v>213</v>
       </c>
@@ -5892,7 +5886,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="29.25" customHeight="1">
       <c r="A219" s="2">
         <v>214</v>
       </c>
@@ -5915,7 +5909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="29.25" customHeight="1">
       <c r="A220" s="2">
         <v>215</v>
       </c>
@@ -5938,7 +5932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" ht="29.25" customHeight="1">
       <c r="A221" s="2">
         <v>216</v>
       </c>
@@ -5961,7 +5955,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" ht="29.25" customHeight="1">
       <c r="A222" s="2">
         <v>217</v>
       </c>
@@ -5984,7 +5978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="223" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" ht="29.25" customHeight="1">
       <c r="A223" s="2">
         <v>218</v>
       </c>
@@ -6007,7 +6001,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="28.55" customHeight="1">
       <c r="A224" s="2">
         <v>219</v>
       </c>
@@ -6030,7 +6024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="29.25" customHeight="1">
       <c r="A225" s="2">
         <v>220</v>
       </c>
@@ -6053,7 +6047,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="29.25" customHeight="1">
       <c r="A226" s="2">
         <v>221</v>
       </c>
@@ -6076,7 +6070,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" ht="29.25" customHeight="1">
       <c r="A227" s="2">
         <v>222</v>
       </c>
@@ -6099,7 +6093,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="29.25" customHeight="1">
       <c r="A228" s="2">
         <v>223</v>
       </c>
@@ -6122,7 +6116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" ht="29.25" customHeight="1">
       <c r="A229" s="2">
         <v>224</v>
       </c>
@@ -6145,7 +6139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="29.25" customHeight="1">
       <c r="A230" s="2">
         <v>225</v>
       </c>
@@ -6168,7 +6162,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" ht="29.25" customHeight="1">
       <c r="A231" s="2">
         <v>226</v>
       </c>
@@ -6191,7 +6185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="232" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="29.25" customHeight="1">
       <c r="A232" s="2">
         <v>227</v>
       </c>
@@ -6214,7 +6208,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="233" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" ht="29.25" customHeight="1">
       <c r="A233" s="2">
         <v>228</v>
       </c>
@@ -6237,7 +6231,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="234" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="29.25" customHeight="1">
       <c r="A234" s="2">
         <v>229</v>
       </c>
@@ -6260,7 +6254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="235" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="29.25" customHeight="1">
       <c r="A235" s="2">
         <v>230</v>
       </c>
@@ -6283,7 +6277,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="236" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="29.25" customHeight="1">
       <c r="A236" s="2">
         <v>231</v>
       </c>
@@ -6306,7 +6300,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="237" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="29.25" customHeight="1">
       <c r="A237" s="2">
         <v>232</v>
       </c>
@@ -6329,7 +6323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="238" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="29.25" customHeight="1">
       <c r="A238" s="2">
         <v>233</v>
       </c>
@@ -6352,7 +6346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="239" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="29.25" customHeight="1">
       <c r="A239" s="2">
         <v>234</v>
       </c>
@@ -6375,7 +6369,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="240" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="29.25" customHeight="1">
       <c r="A240" s="2">
         <v>235</v>
       </c>
@@ -6398,7 +6392,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="241" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="28.55" customHeight="1">
       <c r="A241" s="2">
         <v>236</v>
       </c>
@@ -6421,7 +6415,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" ht="29.25" customHeight="1">
       <c r="A242" s="2">
         <v>237</v>
       </c>
@@ -6444,7 +6438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="29.25" customHeight="1">
       <c r="A243" s="2">
         <v>238</v>
       </c>
@@ -6467,7 +6461,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" ht="29.25" customHeight="1">
       <c r="A244" s="2">
         <v>239</v>
       </c>
@@ -6490,7 +6484,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" ht="29.25" customHeight="1">
       <c r="A245" s="2">
         <v>240</v>
       </c>
@@ -6513,7 +6507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="246" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="29.25" customHeight="1">
       <c r="A246" s="2">
         <v>241</v>
       </c>
@@ -6536,7 +6530,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="29.25" customHeight="1">
       <c r="A247" s="2">
         <v>242</v>
       </c>
@@ -6559,7 +6553,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="248" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="29.25" customHeight="1">
       <c r="A248" s="2">
         <v>243</v>
       </c>
@@ -6582,7 +6576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="249" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" ht="29.25" customHeight="1">
       <c r="A249" s="2">
         <v>244</v>
       </c>
@@ -6605,7 +6599,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="250" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" ht="29.25" customHeight="1">
       <c r="A250" s="2">
         <v>245</v>
       </c>
@@ -6628,7 +6622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="251" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" ht="29.25" customHeight="1">
       <c r="A251" s="2">
         <v>246</v>
       </c>
@@ -6651,7 +6645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="252" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" ht="29.25" customHeight="1">
       <c r="A252" s="2">
         <v>247</v>
       </c>
@@ -6674,7 +6668,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="253" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="29.25" customHeight="1">
       <c r="A253" s="2">
         <v>248</v>
       </c>
@@ -6697,7 +6691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="254" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="29.25" customHeight="1">
       <c r="A254" s="2">
         <v>249</v>
       </c>
@@ -6720,7 +6714,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="255" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" ht="29.25" customHeight="1">
       <c r="A255" s="2">
         <v>250</v>
       </c>
@@ -6743,7 +6737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="256" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="29.25" customHeight="1">
       <c r="A256" s="2">
         <v>251</v>
       </c>
@@ -6766,7 +6760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="257" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="29.25" customHeight="1">
       <c r="A257" s="2">
         <v>252</v>
       </c>
@@ -6789,7 +6783,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" ht="29.25" customHeight="1">
       <c r="A258" s="2">
         <v>253</v>
       </c>
@@ -6812,7 +6806,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="259" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="28.55" customHeight="1">
       <c r="A259" s="2">
         <v>254</v>
       </c>
@@ -6835,7 +6829,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="260" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" ht="29.25" customHeight="1">
       <c r="A260" s="2">
         <v>255</v>
       </c>
@@ -6858,7 +6852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="261" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" ht="29.25" customHeight="1">
       <c r="A261" s="2">
         <v>256</v>
       </c>
@@ -6881,7 +6875,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="262" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" ht="29.25" customHeight="1">
       <c r="A262" s="2">
         <v>257</v>
       </c>
@@ -6904,7 +6898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="263" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" ht="29.25" customHeight="1">
       <c r="A263" s="2">
         <v>258</v>
       </c>
@@ -6927,7 +6921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" ht="29.25" customHeight="1">
       <c r="A264" s="2">
         <v>259</v>
       </c>
@@ -6950,7 +6944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="265" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" ht="29.25" customHeight="1">
       <c r="A265" s="2">
         <v>260</v>
       </c>
@@ -6973,7 +6967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="266" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" ht="29.25" customHeight="1">
       <c r="A266" s="2">
         <v>261</v>
       </c>
@@ -6996,7 +6990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="29.25" customHeight="1">
       <c r="A267" s="2">
         <v>262</v>
       </c>
@@ -7019,7 +7013,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="29.25" customHeight="1">
       <c r="A268" s="2">
         <v>263</v>
       </c>
@@ -7042,7 +7036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" ht="29.25" customHeight="1">
       <c r="A269" s="2">
         <v>264</v>
       </c>
@@ -7065,7 +7059,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="270" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" ht="29.25" customHeight="1">
       <c r="A270" s="2">
         <v>265</v>
       </c>
@@ -7088,7 +7082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" ht="16.5" customHeight="1">
       <c r="A271" s="2">
         <v>266</v>
       </c>
@@ -7111,7 +7105,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A272" s="2">
         <v>267</v>
       </c>
@@ -7134,7 +7128,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="273" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A273" s="2">
         <v>268</v>
       </c>
@@ -7157,7 +7151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" ht="16.5" customHeight="1">
       <c r="A274" s="2">
         <v>269</v>
       </c>
@@ -7180,7 +7174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" ht="29.25" customHeight="1">
       <c r="A275" s="2">
         <v>270</v>
       </c>
@@ -7203,7 +7197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" ht="29.25" customHeight="1">
       <c r="A276" s="2">
         <v>271</v>
       </c>
@@ -7226,7 +7220,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" ht="29.25" customHeight="1">
       <c r="A277" s="2">
         <v>272</v>
       </c>
@@ -7249,7 +7243,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" ht="29.25" customHeight="1">
       <c r="A278" s="2">
         <v>273</v>
       </c>
@@ -7272,7 +7266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A279" s="2">
         <v>274</v>
       </c>
@@ -7295,7 +7289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="16.5" customHeight="1">
       <c r="A280" s="2">
         <v>275</v>
       </c>
@@ -7318,7 +7312,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A281" s="2">
         <v>276</v>
       </c>
@@ -7341,7 +7335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A282" s="2">
         <v>277</v>
       </c>
@@ -7364,7 +7358,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="16.5" customHeight="1">
       <c r="A283" s="2">
         <v>278</v>
       </c>
@@ -7387,7 +7381,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A284" s="2">
         <v>279</v>
       </c>
@@ -7410,7 +7404,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="285" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A285" s="2">
         <v>280</v>
       </c>
@@ -7433,7 +7427,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" ht="16.5" customHeight="1">
       <c r="A286" s="2">
         <v>281</v>
       </c>
@@ -7456,7 +7450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="29.25" customHeight="1">
       <c r="A287" s="2">
         <v>282</v>
       </c>
@@ -7479,7 +7473,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" ht="29.25" customHeight="1">
       <c r="A288" s="2">
         <v>283</v>
       </c>
@@ -7502,7 +7496,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" ht="29.25" customHeight="1">
       <c r="A289" s="2">
         <v>284</v>
       </c>
@@ -7525,7 +7519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" ht="29.25" customHeight="1">
       <c r="A290" s="2">
         <v>285</v>
       </c>
@@ -7548,7 +7542,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" ht="29.25" customHeight="1">
       <c r="A291" s="2">
         <v>286</v>
       </c>
@@ -7571,7 +7565,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A292" s="2">
         <v>287</v>
       </c>
@@ -7594,7 +7588,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="16.5" customHeight="1">
       <c r="A293" s="2">
         <v>288</v>
       </c>
@@ -7617,7 +7611,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A294" s="2">
         <v>289</v>
       </c>
@@ -7640,7 +7634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" ht="29.25" customHeight="1">
       <c r="A295" s="2">
         <v>290</v>
       </c>
@@ -7663,7 +7657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" ht="29.25" customHeight="1">
       <c r="A296" s="2">
         <v>291</v>
       </c>
@@ -7686,7 +7680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" ht="29.25" customHeight="1">
       <c r="A297" s="2">
         <v>292</v>
       </c>
@@ -7709,7 +7703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" ht="29.25" customHeight="1">
       <c r="A298" s="2">
         <v>293</v>
       </c>
@@ -7732,7 +7726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" ht="29.25" customHeight="1">
       <c r="A299" s="2">
         <v>294</v>
       </c>
@@ -7755,7 +7749,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" ht="29.25" customHeight="1">
       <c r="A300" s="2">
         <v>295</v>
       </c>
@@ -7778,7 +7772,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" ht="16.5" customHeight="1">
       <c r="A301" s="2">
         <v>296</v>
       </c>
@@ -7801,7 +7795,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" ht="29.25" customHeight="1">
       <c r="A302" s="2">
         <v>297</v>
       </c>
@@ -7824,7 +7818,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" ht="29.25" customHeight="1">
       <c r="A303" s="2">
         <v>298</v>
       </c>
@@ -7847,7 +7841,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" ht="29.25" customHeight="1">
       <c r="A304" s="2">
         <v>299</v>
       </c>
@@ -7870,7 +7864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" ht="29.25" customHeight="1">
       <c r="A305" s="2">
         <v>300</v>
       </c>
@@ -7893,7 +7887,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" ht="29.25" customHeight="1">
       <c r="A306" s="2">
         <v>301</v>
       </c>
@@ -7916,7 +7910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" ht="29.25" customHeight="1">
       <c r="A307" s="2">
         <v>302</v>
       </c>
@@ -7939,7 +7933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" ht="29.25" customHeight="1">
       <c r="A308" s="2">
         <v>303</v>
       </c>
@@ -7962,7 +7956,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" ht="29.25" customHeight="1">
       <c r="A309" s="2">
         <v>304</v>
       </c>
@@ -7985,7 +7979,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" ht="29.25" customHeight="1">
       <c r="A310" s="2">
         <v>305</v>
       </c>
@@ -8008,7 +8002,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" ht="29.25" customHeight="1">
       <c r="A311" s="2">
         <v>306</v>
       </c>
@@ -8031,7 +8025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="312" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" ht="29.25" customHeight="1">
       <c r="A312" s="2">
         <v>307</v>
       </c>
@@ -8054,7 +8048,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" ht="29.25" customHeight="1">
       <c r="A313" s="2">
         <v>308</v>
       </c>
@@ -8077,7 +8071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" ht="29.25" customHeight="1">
       <c r="A314" s="2">
         <v>309</v>
       </c>
@@ -8100,7 +8094,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" ht="28.55" customHeight="1">
       <c r="A315" s="2">
         <v>310</v>
       </c>
@@ -8123,7 +8117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" ht="29.25" customHeight="1">
       <c r="A316" s="2">
         <v>311</v>
       </c>
@@ -8146,7 +8140,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="317" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" ht="29.25" customHeight="1">
       <c r="A317" s="2">
         <v>312</v>
       </c>
@@ -8169,7 +8163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="318" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" ht="29.25" customHeight="1">
       <c r="A318" s="2">
         <v>313</v>
       </c>
@@ -8192,7 +8186,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="319" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" ht="29.25" customHeight="1">
       <c r="A319" s="2">
         <v>314</v>
       </c>
@@ -8215,7 +8209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="320" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" ht="29.25" customHeight="1">
       <c r="A320" s="2">
         <v>315</v>
       </c>
@@ -8238,7 +8232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" ht="29.25" customHeight="1">
       <c r="A321" s="2">
         <v>316</v>
       </c>
@@ -8261,7 +8255,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="322" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A322" s="2">
         <v>317</v>
       </c>
@@ -8284,7 +8278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="323" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" ht="16.5" customHeight="1">
       <c r="A323" s="2">
         <v>318</v>
       </c>
@@ -8307,7 +8301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="324" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" ht="29.25" customHeight="1">
       <c r="A324" s="2">
         <v>319</v>
       </c>
@@ -8330,7 +8324,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="325" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" ht="29.25" customHeight="1">
       <c r="A325" s="2">
         <v>320</v>
       </c>
@@ -8353,7 +8347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="326" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A326" s="2">
         <v>321</v>
       </c>
@@ -8376,7 +8370,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="327" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" ht="29.25" customHeight="1">
       <c r="A327" s="2">
         <v>322</v>
       </c>
@@ -8399,7 +8393,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="328" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A328" s="2">
         <v>323</v>
       </c>
@@ -8422,7 +8416,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="329" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" ht="28.55" customHeight="1">
       <c r="A329" s="2">
         <v>324</v>
       </c>
@@ -8445,7 +8439,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="330" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" ht="29.25" customHeight="1">
       <c r="A330" s="2">
         <v>325</v>
       </c>
@@ -8468,7 +8462,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="331" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A331" s="2">
         <v>326</v>
       </c>
@@ -8491,7 +8485,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="332" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" ht="29.25" customHeight="1">
       <c r="A332" s="2">
         <v>327</v>
       </c>
@@ -8514,7 +8508,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="333" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A333" s="2">
         <v>328</v>
       </c>
@@ -8537,7 +8531,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="334" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" ht="16.5" customHeight="1">
       <c r="A334" s="2">
         <v>329</v>
       </c>
@@ -8560,7 +8554,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="335" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A335" s="2">
         <v>330</v>
       </c>
@@ -8583,7 +8577,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="336" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A336" s="2">
         <v>331</v>
       </c>
@@ -8604,7 +8598,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" ht="16.5" customHeight="1">
       <c r="A337" s="2">
         <v>332</v>
       </c>
@@ -8625,7 +8619,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A338" s="2">
         <v>333</v>
       </c>
@@ -8646,7 +8640,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="339" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" ht="29.25" customHeight="1">
       <c r="A339" s="2">
         <v>334</v>
       </c>
@@ -8667,7 +8661,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="340" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" ht="16.5" customHeight="1">
       <c r="A340" s="2">
         <v>335</v>
       </c>
@@ -8688,7 +8682,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" ht="16.5" customHeight="1">
       <c r="A341" s="2">
         <v>336</v>
       </c>
@@ -8699,43 +8693,43 @@
         <v>125</v>
       </c>
       <c r="D341" s="4">
-        <v>140000</v>
+        <v>60000</v>
       </c>
       <c r="E341" s="4"/>
       <c r="F341" s="4">
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="G341" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="342" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A342" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D342" s="4">
-        <v>70000</v>
+        <v>140000</v>
       </c>
       <c r="E342" s="4"/>
       <c r="F342" s="4">
-        <v>9000</v>
+        <v>65000</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A343" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>125</v>
@@ -8748,15 +8742,15 @@
         <v>9000</v>
       </c>
       <c r="G343" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="16.5" customHeight="1">
       <c r="A344" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>125</v>
@@ -8769,163 +8763,161 @@
         <v>9000</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="29.25" customHeight="1">
       <c r="A345" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D345" s="4">
-        <v>121800</v>
+        <v>70000</v>
       </c>
       <c r="E345" s="4"/>
       <c r="F345" s="4">
-        <v>17000</v>
+        <v>9000</v>
       </c>
       <c r="G345" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A346" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D346" s="4">
-        <v>70000</v>
+        <v>121800</v>
       </c>
       <c r="E346" s="4"/>
       <c r="F346" s="4">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A347" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D347" s="4">
-        <v>47600</v>
+        <v>70000</v>
       </c>
       <c r="E347" s="4"/>
       <c r="F347" s="4">
-        <v>4400</v>
+        <v>20000</v>
       </c>
       <c r="G347" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="16.5" customHeight="1">
       <c r="A348" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D348" s="4">
-        <v>38318</v>
+        <v>47600</v>
       </c>
       <c r="E348" s="4"/>
       <c r="F348" s="4">
-        <v>2200</v>
+        <v>4400</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="17.350000000000001" customHeight="1">
       <c r="A349" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D349" s="4">
-        <v>62936</v>
+        <v>38318</v>
       </c>
       <c r="E349" s="4"/>
       <c r="F349" s="4">
+        <v>2200</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="17.350000000000001" customHeight="1">
+      <c r="A350" s="2">
+        <v>344</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D350" s="4">
+        <v>62936</v>
+      </c>
+      <c r="E350" s="4"/>
+      <c r="F350" s="4">
         <v>9600</v>
       </c>
-      <c r="G349" s="3" t="s">
+      <c r="G350" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="350" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="2">
+    <row r="351" spans="1:7" ht="28.55" customHeight="1">
+      <c r="A351" s="2">
         <v>345</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B351" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C350" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D350" s="4">
+      <c r="C351" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D351" s="4">
         <v>116000</v>
       </c>
-      <c r="E350" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F350" s="4">
+      <c r="E351" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F351" s="4">
         <v>1740</v>
       </c>
-      <c r="G350" s="3" t="s">
+      <c r="G351" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="351" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="2">
+    <row r="352" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A352" s="2">
         <v>346</v>
-      </c>
-      <c r="B351" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C351" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D351" s="4">
-        <v>17986</v>
-      </c>
-      <c r="E351" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F351" s="4">
-        <v>270</v>
-      </c>
-      <c r="G351" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="2">
-        <v>347</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>49</v>
@@ -8934,1312 +8926,1312 @@
         <v>24</v>
       </c>
       <c r="D352" s="4">
-        <v>29858</v>
+        <v>17986</v>
       </c>
       <c r="E352" s="4">
         <v>1.5</v>
       </c>
       <c r="F352" s="4">
-        <v>448</v>
+        <v>270</v>
       </c>
       <c r="G352" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="353" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" ht="29.25" customHeight="1">
       <c r="A353" s="2">
+        <v>347</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D353" s="4">
+        <v>29858</v>
+      </c>
+      <c r="E353" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F353" s="4">
+        <v>448</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A354" s="2">
         <v>348</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B354" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C353" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D353" s="4">
+      <c r="C354" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D354" s="4">
         <v>49170</v>
       </c>
-      <c r="E353" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F353" s="4">
+      <c r="E354" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F354" s="4">
         <v>738</v>
       </c>
-      <c r="G353" s="3" t="s">
+      <c r="G354" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="354" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="2">
+    <row r="355" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A355" s="2">
         <v>349</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B355" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C354" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D354" s="4">
+      <c r="C355" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D355" s="4">
         <v>91000</v>
       </c>
-      <c r="E354" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F354" s="4">
+      <c r="E355" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F355" s="4">
         <v>1365</v>
       </c>
-      <c r="G354" s="3" t="s">
+      <c r="G355" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="355" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="2">
+    <row r="356" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A356" s="2">
         <v>350</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B356" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C355" s="3" t="s">
+      <c r="C356" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D355" s="4">
+      <c r="D356" s="4">
         <v>207797</v>
       </c>
-      <c r="E355" s="4">
+      <c r="E356" s="4">
         <v>3.75</v>
       </c>
-      <c r="F355" s="4">
+      <c r="F356" s="4">
         <v>7792</v>
       </c>
-      <c r="G355" s="3" t="s">
+      <c r="G356" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="356" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="2">
+    <row r="357" spans="1:7" ht="17.350000000000001" customHeight="1">
+      <c r="A357" s="2">
         <v>351</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B357" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C356" s="3" t="s">
+      <c r="C357" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D356" s="4">
+      <c r="D357" s="4">
         <v>25000</v>
       </c>
-      <c r="E356" s="4">
+      <c r="E357" s="4">
         <v>7.5</v>
       </c>
-      <c r="F356" s="4">
+      <c r="F357" s="4">
         <v>1875</v>
       </c>
-      <c r="G356" s="3" t="s">
+      <c r="G357" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="357" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="2">
+    <row r="358" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A358" s="2">
         <v>352</v>
       </c>
-      <c r="B357" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D357" s="4">
+      <c r="B358" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D358" s="4">
         <v>3248</v>
       </c>
-      <c r="E357" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F357" s="4">
+      <c r="E358" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F358" s="4">
         <v>49</v>
       </c>
-      <c r="G357" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A358" s="2">
+      <c r="G358" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A359" s="2">
         <v>353</v>
       </c>
-      <c r="B358" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C358" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D358" s="4">
+      <c r="B359" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D359" s="4">
         <v>5012</v>
       </c>
-      <c r="E358" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F358" s="4">
+      <c r="E359" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F359" s="4">
         <v>75</v>
       </c>
-      <c r="G358" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A359" s="2">
+      <c r="G359" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A360" s="2">
         <v>354</v>
       </c>
-      <c r="B359" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D359" s="4">
+      <c r="B360" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D360" s="4">
         <v>3122</v>
       </c>
-      <c r="E359" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F359" s="4">
+      <c r="E360" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F360" s="4">
         <v>47</v>
       </c>
-      <c r="G359" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="2">
+      <c r="G360" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A361" s="2">
         <v>355</v>
       </c>
-      <c r="B360" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D360" s="4">
+      <c r="B361" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D361" s="4">
         <v>2623</v>
       </c>
-      <c r="E360" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F360" s="4">
+      <c r="E361" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F361" s="4">
         <v>39</v>
       </c>
-      <c r="G360" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="2">
+      <c r="G361" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A362" s="2">
         <v>356</v>
       </c>
-      <c r="B361" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C361" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D361" s="4">
+      <c r="B362" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D362" s="4">
         <v>2130</v>
       </c>
-      <c r="E361" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F361" s="4">
+      <c r="E362" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F362" s="4">
         <v>32</v>
       </c>
-      <c r="G361" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="2">
+      <c r="G362" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="28.55" customHeight="1">
+      <c r="A363" s="2">
         <v>357</v>
       </c>
-      <c r="B362" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C362" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D362" s="4">
+      <c r="B363" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D363" s="4">
         <v>2720</v>
       </c>
-      <c r="E362" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F362" s="4">
+      <c r="E363" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F363" s="4">
         <v>41</v>
       </c>
-      <c r="G362" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="2">
+      <c r="G363" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A364" s="2">
         <v>358</v>
       </c>
-      <c r="B363" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D363" s="4">
+      <c r="B364" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D364" s="4">
         <v>1659</v>
       </c>
-      <c r="E363" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F363" s="4">
+      <c r="E364" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F364" s="4">
         <v>25</v>
       </c>
-      <c r="G363" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A364" s="2">
+      <c r="G364" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A365" s="2">
         <v>359</v>
       </c>
-      <c r="B364" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D364" s="4">
+      <c r="B365" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D365" s="4">
         <v>3120</v>
       </c>
-      <c r="E364" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F364" s="4">
+      <c r="E365" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F365" s="4">
         <v>47</v>
       </c>
-      <c r="G364" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A365" s="2">
+      <c r="G365" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A366" s="2">
         <v>360</v>
       </c>
-      <c r="B365" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D365" s="4">
+      <c r="B366" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D366" s="4">
         <v>1550</v>
       </c>
-      <c r="E365" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F365" s="4">
+      <c r="E366" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F366" s="4">
         <v>23</v>
       </c>
-      <c r="G365" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A366" s="2">
+      <c r="G366" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A367" s="2">
         <v>361</v>
       </c>
-      <c r="B366" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C366" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D366" s="4">
+      <c r="B367" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D367" s="4">
         <v>2540</v>
       </c>
-      <c r="E366" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F366" s="4">
+      <c r="E367" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F367" s="4">
         <v>38</v>
       </c>
-      <c r="G366" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="2">
+      <c r="G367" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A368" s="2">
         <v>362</v>
       </c>
-      <c r="B367" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C367" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D367" s="4">
+      <c r="B368" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D368" s="4">
         <v>2747</v>
       </c>
-      <c r="E367" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F367" s="4">
+      <c r="E368" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F368" s="4">
         <v>41</v>
       </c>
-      <c r="G367" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A368" s="2">
+      <c r="G368" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A369" s="2">
         <v>363</v>
       </c>
-      <c r="B368" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C368" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D368" s="4">
+      <c r="B369" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D369" s="4">
         <v>3347</v>
       </c>
-      <c r="E368" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F368" s="4">
+      <c r="E369" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F369" s="4">
         <v>50</v>
       </c>
-      <c r="G368" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="2">
+      <c r="G369" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A370" s="2">
         <v>364</v>
       </c>
-      <c r="B369" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C369" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D369" s="4">
+      <c r="B370" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D370" s="4">
         <v>489</v>
       </c>
-      <c r="E369" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F369" s="4">
+      <c r="E370" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F370" s="4">
         <v>7</v>
       </c>
-      <c r="G369" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A370" s="2">
+      <c r="G370" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A371" s="2">
         <v>365</v>
       </c>
-      <c r="B370" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C370" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D370" s="4">
+      <c r="B371" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D371" s="4">
         <v>13893</v>
       </c>
-      <c r="E370" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F370" s="4">
+      <c r="E371" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F371" s="4">
         <v>208</v>
       </c>
-      <c r="G370" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A371" s="2">
+      <c r="G371" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A372" s="2">
         <v>366</v>
       </c>
-      <c r="B371" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C371" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D371" s="4">
+      <c r="B372" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D372" s="4">
         <v>3157</v>
       </c>
-      <c r="E371" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F371" s="4">
+      <c r="E372" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F372" s="4">
         <v>47</v>
       </c>
-      <c r="G371" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="2">
+      <c r="G372" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A373" s="2">
         <v>367</v>
       </c>
-      <c r="B372" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C372" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D372" s="4">
+      <c r="B373" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D373" s="4">
         <v>2142</v>
       </c>
-      <c r="E372" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F372" s="4">
+      <c r="E373" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F373" s="4">
         <v>32</v>
       </c>
-      <c r="G372" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A373" s="2">
+      <c r="G373" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A374" s="2">
         <v>368</v>
       </c>
-      <c r="B373" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D373" s="4">
+      <c r="B374" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D374" s="4">
         <v>1112</v>
       </c>
-      <c r="E373" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F373" s="4">
+      <c r="E374" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F374" s="4">
         <v>17</v>
       </c>
-      <c r="G373" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A374" s="2">
+      <c r="G374" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A375" s="2">
         <v>369</v>
       </c>
-      <c r="B374" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D374" s="4">
+      <c r="B375" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D375" s="4">
         <v>5334</v>
       </c>
-      <c r="E374" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F374" s="4">
+      <c r="E375" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F375" s="4">
         <v>80</v>
       </c>
-      <c r="G374" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A375" s="2">
+      <c r="G375" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A376" s="2">
         <v>370</v>
       </c>
-      <c r="B375" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C375" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D375" s="4">
+      <c r="B376" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D376" s="4">
         <v>3203</v>
       </c>
-      <c r="E375" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F375" s="4">
+      <c r="E376" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F376" s="4">
         <v>48</v>
       </c>
-      <c r="G375" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A376" s="2">
+      <c r="G376" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A377" s="2">
         <v>371</v>
       </c>
-      <c r="B376" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C376" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D376" s="4">
+      <c r="B377" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D377" s="4">
         <v>2869</v>
       </c>
-      <c r="E376" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F376" s="4">
-        <v>43</v>
-      </c>
-      <c r="G376" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A377" s="2">
+      <c r="E377" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F377" s="4">
+        <v>43</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A378" s="2">
         <v>372</v>
       </c>
-      <c r="B377" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D377" s="4">
+      <c r="B378" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D378" s="4">
         <v>2640</v>
       </c>
-      <c r="E377" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F377" s="4">
+      <c r="E378" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F378" s="4">
         <v>40</v>
       </c>
-      <c r="G377" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A378" s="2">
+      <c r="G378" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A379" s="2">
         <v>373</v>
       </c>
-      <c r="B378" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D378" s="4">
+      <c r="B379" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D379" s="4">
         <v>750</v>
       </c>
-      <c r="E378" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F378" s="4">
+      <c r="E379" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F379" s="4">
         <v>11</v>
       </c>
-      <c r="G378" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="2">
+      <c r="G379" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A380" s="2">
         <v>374</v>
       </c>
-      <c r="B379" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D379" s="4">
+      <c r="B380" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D380" s="4">
         <v>8207</v>
       </c>
-      <c r="E379" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F379" s="4">
+      <c r="E380" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F380" s="4">
         <v>123</v>
       </c>
-      <c r="G379" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A380" s="2">
+      <c r="G380" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="28.55" customHeight="1">
+      <c r="A381" s="2">
         <v>375</v>
       </c>
-      <c r="B380" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D380" s="4">
+      <c r="B381" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D381" s="4">
         <v>5996</v>
       </c>
-      <c r="E380" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F380" s="4">
+      <c r="E381" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F381" s="4">
         <v>90</v>
       </c>
-      <c r="G380" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A381" s="2">
+      <c r="G381" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A382" s="2">
         <v>376</v>
       </c>
-      <c r="B381" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C381" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D381" s="4">
+      <c r="B382" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D382" s="4">
         <v>4881</v>
       </c>
-      <c r="E381" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F381" s="4">
+      <c r="E382" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F382" s="4">
         <v>73</v>
       </c>
-      <c r="G381" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A382" s="2">
+      <c r="G382" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A383" s="2">
         <v>377</v>
       </c>
-      <c r="B382" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C382" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D382" s="4">
+      <c r="B383" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D383" s="4">
         <v>2548</v>
       </c>
-      <c r="E382" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F382" s="4">
+      <c r="E383" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F383" s="4">
         <v>38</v>
       </c>
-      <c r="G382" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="2">
+      <c r="G383" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A384" s="2">
         <v>378</v>
       </c>
-      <c r="B383" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C383" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D383" s="4">
+      <c r="B384" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D384" s="4">
         <v>1484</v>
       </c>
-      <c r="E383" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F383" s="4">
+      <c r="E384" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F384" s="4">
         <v>22</v>
       </c>
-      <c r="G383" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="2">
+      <c r="G384" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A385" s="2">
         <v>379</v>
       </c>
-      <c r="B384" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C384" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D384" s="4">
+      <c r="B385" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D385" s="4">
         <v>3416</v>
       </c>
-      <c r="E384" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F384" s="4">
+      <c r="E385" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F385" s="4">
         <v>51</v>
       </c>
-      <c r="G384" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A385" s="2">
+      <c r="G385" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A386" s="2">
         <v>380</v>
       </c>
-      <c r="B385" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C385" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D385" s="4">
+      <c r="B386" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D386" s="4">
         <v>3327</v>
       </c>
-      <c r="E385" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F385" s="4">
+      <c r="E386" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F386" s="4">
         <v>50</v>
       </c>
-      <c r="G385" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A386" s="2">
+      <c r="G386" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A387" s="2">
         <v>381</v>
       </c>
-      <c r="B386" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C386" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D386" s="4">
+      <c r="B387" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D387" s="4">
         <v>1600</v>
       </c>
-      <c r="E386" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F386" s="4">
-        <v>24</v>
-      </c>
-      <c r="G386" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="387" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A387" s="2">
+      <c r="E387" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F387" s="4">
+        <v>24</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A388" s="2">
         <v>382</v>
       </c>
-      <c r="B387" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D387" s="4">
+      <c r="B388" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D388" s="4">
         <v>4585</v>
       </c>
-      <c r="E387" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F387" s="4">
+      <c r="E388" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F388" s="4">
         <v>69</v>
       </c>
-      <c r="G387" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A388" s="2">
+      <c r="G388" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A389" s="2">
         <v>383</v>
       </c>
-      <c r="B388" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C388" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D388" s="4">
+      <c r="B389" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D389" s="4">
         <v>2105</v>
       </c>
-      <c r="E388" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F388" s="4">
+      <c r="E389" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F389" s="4">
         <v>32</v>
       </c>
-      <c r="G388" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A389" s="2">
+      <c r="G389" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A390" s="2">
         <v>384</v>
       </c>
-      <c r="B389" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C389" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D389" s="4">
+      <c r="B390" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D390" s="4">
         <v>1699</v>
       </c>
-      <c r="E389" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F389" s="4">
+      <c r="E390" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F390" s="4">
         <v>25</v>
       </c>
-      <c r="G389" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A390" s="2">
+      <c r="G390" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A391" s="2">
         <v>385</v>
       </c>
-      <c r="B390" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C390" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D390" s="4">
+      <c r="B391" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D391" s="4">
         <v>3014</v>
       </c>
-      <c r="E390" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F390" s="4">
+      <c r="E391" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F391" s="4">
         <v>45</v>
       </c>
-      <c r="G390" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A391" s="2">
+      <c r="G391" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A392" s="2">
         <v>386</v>
       </c>
-      <c r="B391" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D391" s="4">
+      <c r="B392" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D392" s="4">
         <v>4866</v>
       </c>
-      <c r="E391" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F391" s="4">
+      <c r="E392" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F392" s="4">
         <v>73</v>
       </c>
-      <c r="G391" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A392" s="2">
+      <c r="G392" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A393" s="2">
         <v>387</v>
       </c>
-      <c r="B392" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C392" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D392" s="4">
+      <c r="B393" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D393" s="4">
         <v>559</v>
       </c>
-      <c r="E392" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F392" s="4">
+      <c r="E393" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F393" s="4">
         <v>8</v>
       </c>
-      <c r="G392" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A393" s="2">
+      <c r="G393" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A394" s="2">
         <v>388</v>
       </c>
-      <c r="B393" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D393" s="4">
+      <c r="B394" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D394" s="4">
         <v>1210</v>
       </c>
-      <c r="E393" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F393" s="4">
+      <c r="E394" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F394" s="4">
         <v>18</v>
       </c>
-      <c r="G393" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A394" s="2">
+      <c r="G394" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A395" s="2">
         <v>389</v>
       </c>
-      <c r="B394" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D394" s="4">
+      <c r="B395" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D395" s="4">
         <v>3796</v>
       </c>
-      <c r="E394" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F394" s="4">
+      <c r="E395" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F395" s="4">
         <v>57</v>
       </c>
-      <c r="G394" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A395" s="2">
+      <c r="G395" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A396" s="2">
         <v>390</v>
       </c>
-      <c r="B395" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C395" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D395" s="4">
+      <c r="B396" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D396" s="4">
         <v>1586</v>
       </c>
-      <c r="E395" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F395" s="4">
-        <v>24</v>
-      </c>
-      <c r="G395" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A396" s="2">
+      <c r="E396" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F396" s="4">
+        <v>24</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A397" s="2">
         <v>391</v>
       </c>
-      <c r="B396" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C396" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D396" s="4">
+      <c r="B397" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D397" s="4">
         <v>365</v>
       </c>
-      <c r="E396" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F396" s="4">
+      <c r="E397" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F397" s="4">
         <v>5</v>
       </c>
-      <c r="G396" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A397" s="2">
+      <c r="G397" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="28.55" customHeight="1">
+      <c r="A398" s="2">
         <v>392</v>
       </c>
-      <c r="B397" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C397" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D397" s="4">
+      <c r="B398" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D398" s="4">
         <v>410</v>
       </c>
-      <c r="E397" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F397" s="4">
+      <c r="E398" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F398" s="4">
         <v>6</v>
       </c>
-      <c r="G397" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A398" s="2">
+      <c r="G398" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A399" s="2">
         <v>393</v>
       </c>
-      <c r="B398" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C398" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D398" s="4">
+      <c r="B399" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D399" s="4">
         <v>1475</v>
       </c>
-      <c r="E398" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F398" s="4">
+      <c r="E399" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F399" s="4">
         <v>22</v>
       </c>
-      <c r="G398" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="399" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A399" s="2">
+      <c r="G399" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A400" s="2">
         <v>394</v>
       </c>
-      <c r="B399" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D399" s="4">
+      <c r="B400" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D400" s="4">
         <v>5546</v>
       </c>
-      <c r="E399" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F399" s="4">
+      <c r="E400" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F400" s="4">
         <v>83</v>
       </c>
-      <c r="G399" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A400" s="2">
+      <c r="G400" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A401" s="2">
         <v>395</v>
       </c>
-      <c r="B400" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D400" s="4">
+      <c r="B401" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D401" s="4">
         <v>309</v>
       </c>
-      <c r="E400" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F400" s="4">
+      <c r="E401" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F401" s="4">
         <v>5</v>
       </c>
-      <c r="G400" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A401" s="2">
+      <c r="G401" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A402" s="2">
         <v>396</v>
       </c>
-      <c r="B401" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C401" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D401" s="4">
+      <c r="B402" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D402" s="4">
         <v>519</v>
       </c>
-      <c r="E401" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F401" s="4">
+      <c r="E402" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F402" s="4">
         <v>8</v>
       </c>
-      <c r="G401" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A402" s="2">
+      <c r="G402" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A403" s="2">
         <v>397</v>
       </c>
-      <c r="B402" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C402" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D402" s="4">
+      <c r="B403" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D403" s="4">
         <v>1100</v>
       </c>
-      <c r="E402" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F402" s="4">
+      <c r="E403" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F403" s="4">
         <v>17</v>
       </c>
-      <c r="G402" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A403" s="2">
+      <c r="G403" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A404" s="2">
         <v>398</v>
       </c>
-      <c r="B403" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D403" s="4">
+      <c r="B404" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D404" s="4">
         <v>2025</v>
       </c>
-      <c r="E403" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F403" s="4">
+      <c r="E404" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F404" s="4">
         <v>30</v>
       </c>
-      <c r="G403" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A404" s="2">
+      <c r="G404" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A405" s="2">
         <v>399</v>
       </c>
-      <c r="B404" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C404" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D404" s="4">
+      <c r="B405" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D405" s="4">
         <v>1419</v>
       </c>
-      <c r="E404" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F404" s="4">
+      <c r="E405" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F405" s="4">
         <v>21</v>
       </c>
-      <c r="G404" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A405" s="2">
+      <c r="G405" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A406" s="2">
         <v>400</v>
       </c>
-      <c r="B405" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C405" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D405" s="4">
+      <c r="B406" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D406" s="4">
         <v>2670</v>
       </c>
-      <c r="E405" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F405" s="4">
+      <c r="E406" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F406" s="4">
         <v>40</v>
       </c>
-      <c r="G405" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A406" s="2">
+      <c r="G406" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A407" s="2">
         <v>401</v>
       </c>
-      <c r="B406" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D406" s="4">
+      <c r="B407" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D407" s="4">
         <v>2974</v>
       </c>
-      <c r="E406" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F406" s="4">
+      <c r="E407" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F407" s="4">
         <v>45</v>
       </c>
-      <c r="G406" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A407" s="2">
+      <c r="G407" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A408" s="2">
         <v>402</v>
       </c>
-      <c r="B407" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C407" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D407" s="4">
+      <c r="B408" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D408" s="4">
         <v>8219</v>
       </c>
-      <c r="E407" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F407" s="4">
+      <c r="E408" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F408" s="4">
         <v>123</v>
       </c>
-      <c r="G407" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="408" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A408" s="2">
+      <c r="G408" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A409" s="2">
         <v>403</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="B409" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D408" s="4">
-        <v>55000</v>
-      </c>
-      <c r="E408" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="F408" s="4">
-        <v>4125</v>
-      </c>
-      <c r="G408" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A409" s="2">
-        <v>404</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>12</v>
@@ -10254,84 +10246,84 @@
         <v>4125</v>
       </c>
       <c r="G409" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" ht="29.25" customHeight="1">
       <c r="A410" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D410" s="4">
-        <v>69520</v>
+        <v>55000</v>
       </c>
       <c r="E410" s="4">
         <v>7.5</v>
       </c>
       <c r="F410" s="4">
-        <v>5214</v>
+        <v>4125</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" ht="29.25" customHeight="1">
       <c r="A411" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D411" s="4">
-        <v>11676</v>
+        <v>69520</v>
       </c>
       <c r="E411" s="4">
         <v>7.5</v>
       </c>
       <c r="F411" s="4">
-        <v>876</v>
+        <v>5214</v>
       </c>
       <c r="G411" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" ht="29.25" customHeight="1">
       <c r="A412" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D412" s="4">
-        <v>46662</v>
+        <v>11676</v>
       </c>
       <c r="E412" s="4">
         <v>7.5</v>
       </c>
       <c r="F412" s="4">
-        <v>3500</v>
+        <v>876</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" ht="29.25" customHeight="1">
       <c r="A413" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>12</v>
@@ -10346,73 +10338,96 @@
         <v>3500</v>
       </c>
       <c r="G413" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="29.25" customHeight="1">
       <c r="A414" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D414" s="4">
-        <v>35000</v>
+        <v>46662</v>
       </c>
       <c r="E414" s="4">
         <v>7.5</v>
       </c>
       <c r="F414" s="4">
+        <v>3500</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A415" s="2">
+        <v>409</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D415" s="4">
+        <v>35000</v>
+      </c>
+      <c r="E415" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="F415" s="4">
         <v>2625</v>
       </c>
-      <c r="G414" s="3" t="s">
+      <c r="G415" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D415" s="5">
+    <row r="416" spans="1:7" ht="11.25" customHeight="1">
+      <c r="D416" s="5">
         <v>19472301.539999999</v>
       </c>
-      <c r="E415" s="5">
+      <c r="E416" s="5">
         <v>769.25</v>
       </c>
-      <c r="F415" s="5">
+      <c r="F416" s="5">
         <v>2800723</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="8" t="s">
+    <row r="417" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A417" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B416" s="8"/>
-      <c r="C416" s="8"/>
-      <c r="D416" s="8"/>
-      <c r="E416" s="8"/>
-      <c r="F416" s="8"/>
-      <c r="G416" s="8"/>
-    </row>
-    <row r="417" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A417" s="8" t="s">
+      <c r="B417" s="6"/>
+      <c r="C417" s="6"/>
+      <c r="D417" s="6"/>
+      <c r="E417" s="6"/>
+      <c r="F417" s="6"/>
+      <c r="G417" s="6"/>
+    </row>
+    <row r="418" spans="1:7" ht="13.6" customHeight="1">
+      <c r="A418" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B417" s="8"/>
-      <c r="C417" s="8"/>
-      <c r="D417" s="8"/>
-      <c r="E417" s="8"/>
-      <c r="F417" s="8"/>
-      <c r="G417" s="8"/>
+      <c r="B418" s="6"/>
+      <c r="C418" s="6"/>
+      <c r="D418" s="6"/>
+      <c r="E418" s="6"/>
+      <c r="F418" s="6"/>
+      <c r="G418" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A417:G417"/>
+    <mergeCell ref="A418:G418"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A416:G416"/>
+    <mergeCell ref="A417:G417"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
